--- a/HLR PRACTICE.xlsx
+++ b/HLR PRACTICE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="333" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="140" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="WHATSAPP IN MOBILE LOGIN" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="84">
   <si>
     <t>CREATE BY :</t>
   </si>
@@ -233,6 +233,51 @@
   </si>
   <si>
     <t>FEEDBACK</t>
+  </si>
+  <si>
+    <t>USERNAME</t>
+  </si>
+  <si>
+    <t>SUCCESSFULLY</t>
+  </si>
+  <si>
+    <t>UNSUCCESSFULLY</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>User functionality is not working</t>
+  </si>
+  <si>
+    <t>Doesn't allow to written user input</t>
+  </si>
+  <si>
+    <t>Allow to access the website to write details</t>
+  </si>
+  <si>
+    <t>Allow user to input detail</t>
+  </si>
+  <si>
+    <t>Facebook : xyz123_@@gmail.com</t>
+  </si>
+  <si>
+    <t>Doesn't allow user to write mail address with UI msg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allow the user to enter mail </t>
+  </si>
+  <si>
+    <t>ALLOW</t>
+  </si>
+  <si>
+    <t>NOT ALLOW</t>
+  </si>
+  <si>
+    <t>(@@) are not allowed 2 times</t>
+  </si>
+  <si>
+    <t>Google Chrome -- Version 126.0.6478.127</t>
   </si>
 </sst>
 </file>
@@ -287,7 +332,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -445,7 +490,52 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -453,6 +543,81 @@
       </right>
       <top/>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -462,7 +627,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -491,24 +656,63 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -838,27 +1042,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1672,27 +1876,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1920,364 +2124,396 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" customWidth="1"/>
-    <col min="3" max="3" width="45.7109375" customWidth="1"/>
-    <col min="4" max="4" width="30.85546875" customWidth="1"/>
-    <col min="5" max="5" width="27.42578125" customWidth="1"/>
-    <col min="6" max="6" width="26.85546875" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" customWidth="1"/>
+    <col min="4" max="4" width="46.28515625" customWidth="1"/>
+    <col min="5" max="5" width="51.5703125" customWidth="1"/>
+    <col min="6" max="6" width="41.85546875" customWidth="1"/>
     <col min="7" max="7" width="24" customWidth="1"/>
     <col min="8" max="8" width="23.28515625" customWidth="1"/>
     <col min="9" max="9" width="18.5703125" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" customWidth="1"/>
+    <col min="10" max="10" width="33.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="I8" s="18" t="s">
+      <c r="I8" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="J8" s="18" t="s">
+      <c r="J8" s="17" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="20">
+    <row r="9" spans="1:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22">
         <v>1</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
+      <c r="B9" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" s="25" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="20">
+      <c r="A10" s="26">
         <v>2</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="J10" s="27" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="20">
+      <c r="A11" s="26">
         <v>3</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="27"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="20">
+      <c r="A12" s="26">
         <v>4</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="27"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="20">
+      <c r="A13" s="26">
         <v>5</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="27"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="21">
+      <c r="A14" s="28">
         <v>6</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="27"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="21">
+      <c r="A15" s="28">
         <v>7</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="27"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="21">
+      <c r="A16" s="28">
         <v>8</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="27"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="21">
+      <c r="A17" s="28">
         <v>9</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="27"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="21">
+      <c r="A18" s="28">
         <v>10</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="27"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="27"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="27"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="27"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="27"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="27"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="21"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="27"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="21"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="27"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="21"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="27"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="22"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="30"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="22"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="30"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
+      <c r="A29" s="29"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="30"/>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="31"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
